--- a/techniqo/technicals/technicals_ours.xlsx
+++ b/techniqo/technicals/technicals_ours.xlsx
@@ -4961,9 +4961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ15" sqref="AQ15"/>
+      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/techniqo/technicals/technicals_ours.xlsx
+++ b/techniqo/technicals/technicals_ours.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1538">
   <si>
     <t>Stocks</t>
   </si>
@@ -4630,6 +4630,12 @@
   </si>
   <si>
     <t>ZYDUSWELL.NS</t>
+  </si>
+  <si>
+    <t>williamp</t>
+  </si>
+  <si>
+    <t>rocp</t>
   </si>
 </sst>
 </file>
@@ -4959,11 +4965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM496"/>
+  <dimension ref="A1:BO496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4973,12 +4979,13 @@
     <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="1" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" style="1" customWidth="1"/>
     <col min="27" max="27" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -5011,7 +5018,7 @@
     <col min="65" max="65" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5207,8 +5214,14 @@
       <c r="BM1" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5372,7 +5385,7 @@
         <v>85.276983614671352</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>38.995480349983453</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>42.149195533092687</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -5870,7 +5883,7 @@
         <v>21.533993865284408</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -6040,7 +6053,7 @@
         <v>34.382477276997257</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6210,7 +6223,7 @@
         <v>79.544629598050363</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -6380,7 +6393,7 @@
         <v>26.20008866183845</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -6544,7 +6557,7 @@
         <v>3.1804410358488391</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>11.21709350956578</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -6887,7 +6900,7 @@
         <v>73.800834518517433</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -7057,7 +7070,7 @@
         <v>2.8667869927143532</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -7227,7 +7240,7 @@
         <v>20.98927503910032</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -7397,7 +7410,7 @@
         <v>65.00214291650309</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -7561,7 +7574,7 @@
         <v>25.170147927225891</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
